--- a/数据整理/stocks/A股/创业板/301153-中科江南.xlsx
+++ b/数据整理/stocks/A股/创业板/301153-中科江南.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -498,6 +515,1350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012501</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
